--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{000D00C9-5D6F-4F85-93DC-A87ACAF290A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{28975908-699C-4E1E-BCF7-DD04D225A7FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24150" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24210" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="187">
   <si>
     <t>School Name</t>
   </si>
@@ -346,30 +346,6 @@
     <t>$35.95</t>
   </si>
   <si>
-    <t>$79.85</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 21:55:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 21:55:48</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 21:57:15</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 21:57:17</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 21:57:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 21:57:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 21:57:42</t>
-  </si>
-  <si>
     <t>Success - 2021/02/15 21:57:59</t>
   </si>
   <si>
@@ -391,187 +367,226 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>Final Status</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:32:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:32:32</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:32:35</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:33:09</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:33:37</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:34:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:34:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:34:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:34:19</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:34:26</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:34:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 08:34:35</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/16 09:12:50</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:15:59</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:16:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:16:52</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:16:59</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:17:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:18:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:18:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:18:48</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:18:49</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:18:50</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:19:16</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:19:32</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:19:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 09:19:52</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:14:21</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:14:30</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:14:38</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/16 11:14:58</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:17:59</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:18:06</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:18:16</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/16 11:18:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:20:16</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:20:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:20:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:21:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:22:03</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:22:37</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:22:42</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:22:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:22:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:23:09</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:23:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:23:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:35:32</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:35:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:35:52</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:36:42</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:37:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:38:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:38:06</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:38:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:38:10</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:38:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:38:50</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:39:10</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/16 11:39:11</t>
+    <t>$85.85</t>
+  </si>
+  <si>
+    <t>$27.95</t>
+  </si>
+  <si>
+    <t>$38.95</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:35:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:35:32</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:35:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:37:29</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 18:37:48</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 18:37:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:37:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:38:21</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:38:41</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 18:40:16</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:40:17</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:56:26</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:56:34</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:56:40</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:57:18</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:57:51</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:58:23</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:58:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:58:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:58:29</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:58:46</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:59:03</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 18:59:19</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:00:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:00:44</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:00:48</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:02:50</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:03:22</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:03:28</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:03:31</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:04:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:05:04</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:05:13</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:05:18</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:05:33</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:05:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:06:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:07:01</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:07:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:07:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:07:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:07:09</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:07:29</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:07:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:07:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:08:03</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:09:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:09:30</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:09:41</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:09:46</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:09:48</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:11:48</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:11:50</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:13:08</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:13:56</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:18:06</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:19:11</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:19:53</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:21:13</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:21:54</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:22:08</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:23:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:23:16</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:23:56</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:25:58</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:25:58</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:26:10</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:28:12</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:30:14</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/20 19:32:15</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/20 19:32:16</t>
   </si>
 </sst>
 </file>
@@ -919,25 +934,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -977,7 +992,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +1003,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1062,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1164,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1208,19 +1223,19 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,16 +1246,16 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
         <v>176</v>
@@ -1263,10 +1278,10 @@
         <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1416,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1451,7 +1466,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1501,7 +1516,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1563,7 @@
         <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
         <v>98</v>
@@ -1571,7 +1586,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
